--- a/biology/Zoologie/Euchrysops/Euchrysops.xlsx
+++ b/biology/Zoologie/Euchrysops/Euchrysops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euchrysops est un genre de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Euchrysops a été décrit par le zoologiste britannique Arthur Gardiner Butler en 1900, avec pour espèce type Hesperia cnejus Fabricius, 1798[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Euchrysops a été décrit par le zoologiste britannique Arthur Gardiner Butler en 1900, avec pour espèce type Hesperia cnejus Fabricius, 1798.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Euchrysops sont presque toutes originaires d'Afrique et/ou de la péninsule arabique, à l'exception d’Euchrysops cnejus, qui se rencontre en Asie du Sud et du Sud-Est et en Océanie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Euchrysops sont presque toutes originaires d'Afrique et/ou de la péninsule arabique, à l'exception d’Euchrysops cnejus, qui se rencontre en Asie du Sud et du Sud-Est et en Océanie.
 </t>
         </is>
       </c>
@@ -573,15 +589,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon FUNET Tree of Life  (2 juillet 2020)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon FUNET Tree of Life  (2 juillet 2020) :
 Euchrysops abyssinica (Aurivillius, 1922)
 Euchrysops alberta (Butler, 1901)
 Euchrysops albistriata (Capronnier, 1889)
 Euchrysops banyo Libert, 2001
 Euchrysops barkeri (Trimen, 1893)
-Euchrysops brunneus Bethune-Baker, [1923]
+Euchrysops brunneus Bethune-Baker, 
 Euchrysops cnejus (Fabricius, 1798)
 Euchrysops crawshayi (Butler, 1899)
 Euchrysops cyclopteris (Butler, 1876)
@@ -589,11 +607,11 @@
 Euchrysops dolorosa (Trimen, 1887)
 Euchrysops horus (Stoneham, 1938)
 Euchrysops kabrosae (Bethune-Baker, 1906)
-Euchrysops katangae Bethune-Baker, [1923]
+Euchrysops katangae Bethune-Baker, 
 Euchrysops leucyanea (Hewitson)
-Euchrysops lois (Butler, [1886])
+Euchrysops lois (Butler, )
 Euchrysops malathana (Boisduval, 1833)
-Euchrysops mauensis Bethune-Baker, [1923]
+Euchrysops mauensis Bethune-Baker, 
 Euchrysops migiurtiniensis Stempffer, 1946
 Euchrysops nandensis (Neave, 1904)
 Euchrysops nilotica (Aurivillius, 1904)
@@ -603,7 +621,7 @@
 Euchrysops sagba Libert, 1993
 Euchrysops sahelianus Libert, 2001
 Euchrysops severini Hulstaert, 1924
-Euchrysops subpallida Bethune-Baker, [1923]
+Euchrysops subpallida Bethune-Baker, 
 Euchrysops unigemmata (Butler, 1895)</t>
         </is>
       </c>
